--- a/RepoDb/RepoDb.Performance/repodb-v1.2-ormbenchmark.xlsx
+++ b/RepoDb/RepoDb.Performance/repodb-v1.2-ormbenchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\play\RepoDb\RepoDb\RepoDb.Performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{44C6BA2A-1989-4867-8E68-BB50A11B5F39}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03286E39-A13A-40A2-AEE1-0AB10C3A6218}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FetchSet_run1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Framework</t>
-  </si>
-  <si>
-    <t>Non-change tracking fetches, set fetches (25 runs), no caching</t>
   </si>
   <si>
     <t>Trim helper</t>
@@ -155,6 +152,9 @@
   <si>
     <t>Insight Database (Single)</t>
   </si>
+  <si>
+    <t>Performance of mapping 5000 rows to POCO objects in one iteration</t>
+  </si>
 </sst>
 </file>
 
@@ -245,6 +245,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance of mapping 5000 rows to POCO objects in one iteration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1018,6 +1043,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance of mapping 5000 rows to POCO objects in one iteration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4415,8 +4465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4429,7 +4479,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -4442,7 +4492,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>91</v>
@@ -4450,7 +4500,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
         <v>92</v>
@@ -4458,7 +4508,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3">
         <v>93</v>
@@ -4466,7 +4516,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>98</v>
@@ -4474,7 +4524,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>98</v>
@@ -4482,7 +4532,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <v>98</v>
@@ -4490,7 +4540,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
@@ -4498,7 +4548,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
@@ -4506,7 +4556,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4">
         <v>100</v>
@@ -4514,7 +4564,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <v>108</v>
@@ -4522,7 +4572,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>113</v>
@@ -4530,7 +4580,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <v>113</v>
@@ -4538,7 +4588,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4">
         <v>115</v>
@@ -4546,7 +4596,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>115</v>
@@ -4554,7 +4604,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
         <v>124</v>
@@ -4562,7 +4612,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>196</v>
@@ -4570,7 +4620,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>306</v>
@@ -4578,108 +4628,108 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="str">
-        <f>TRIM(B4)</f>
+        <f t="shared" ref="B31:B47" si="0">TRIM(B4)</f>
         <v>PetaPoco (Fetch Fast)</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="str">
-        <f>TRIM(B5)</f>
+        <f t="shared" si="0"/>
         <v>ADO (Pure)</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="str">
-        <f>TRIM(B6)</f>
+        <f t="shared" si="0"/>
         <v>RepoDb Persistent Query</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="str">
-        <f>TRIM(B7)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit (Auto Mapper)</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="str">
-        <f>TRIM(B8)</f>
+        <f t="shared" si="0"/>
         <v>PetaPoco (Fetch)</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="str">
-        <f>TRIM(B9)</f>
+        <f t="shared" si="0"/>
         <v>PetaPoco (Fast)</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="str">
-        <f>TRIM(B10)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="str">
-        <f>TRIM(B11)</f>
+        <f t="shared" si="0"/>
         <v>Dapper Query (Non Buffered)</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="str">
-        <f>TRIM(B12)</f>
+        <f t="shared" si="0"/>
         <v>Orm Lite</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="str">
-        <f>TRIM(B13)</f>
+        <f t="shared" si="0"/>
         <v>Insight Database</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="str">
-        <f>TRIM(B14)</f>
+        <f t="shared" si="0"/>
         <v>RepoDb Query</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="str">
-        <f>TRIM(B15)</f>
+        <f t="shared" si="0"/>
         <v>Dapper Query (Buffered)</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="str">
-        <f>TRIM(B16)</f>
+        <f t="shared" si="0"/>
         <v>Dapper Contrib</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="str">
-        <f>TRIM(B17)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit (Beta)</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="str">
-        <f>TRIM(B18)</f>
+        <f t="shared" si="0"/>
         <v>PetaPoco</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="str">
-        <f>TRIM(B19)</f>
+        <f t="shared" si="0"/>
         <v>Entity Framework</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="str">
-        <f>TRIM(B20)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit (No Query)</v>
       </c>
     </row>
@@ -4704,7 +4754,7 @@
   <dimension ref="B2:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4717,7 +4767,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -4730,7 +4780,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>11</v>
@@ -4738,7 +4788,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>73</v>
@@ -4746,7 +4796,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>76</v>
@@ -4754,7 +4804,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>78</v>
@@ -4762,7 +4812,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>80</v>
@@ -4770,7 +4820,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>81</v>
@@ -4778,7 +4828,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>82</v>
@@ -4786,7 +4836,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <v>85</v>
@@ -4794,7 +4844,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
         <v>91</v>
@@ -4802,7 +4852,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>92</v>
@@ -4810,7 +4860,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <v>95</v>
@@ -4818,7 +4868,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
         <v>98</v>
@@ -4826,7 +4876,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>99</v>
@@ -4834,7 +4884,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>109</v>
@@ -4842,7 +4892,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2">
         <v>134</v>
@@ -4850,7 +4900,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
         <v>182</v>
@@ -4858,7 +4908,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>182</v>
@@ -4866,7 +4916,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3">
         <v>821</v>
@@ -4874,7 +4924,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3">
         <v>848</v>
@@ -4886,102 +4936,102 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4994,8 +5044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBA8335-AC08-4FAA-BDF2-0A2C61F031A3}">
   <dimension ref="B2:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5008,7 +5058,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -5021,7 +5071,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>101</v>
@@ -5029,7 +5079,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3">
         <v>105</v>
@@ -5037,7 +5087,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <v>113</v>
@@ -5045,7 +5095,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>116</v>
@@ -5053,7 +5103,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>117</v>
@@ -5061,7 +5111,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>117</v>
@@ -5069,7 +5119,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>119</v>
@@ -5077,7 +5127,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>121</v>
@@ -5085,7 +5135,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
         <v>122</v>
@@ -5093,7 +5143,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>123</v>
@@ -5101,7 +5151,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2">
         <v>124</v>
@@ -5109,7 +5159,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>127</v>
@@ -5117,7 +5167,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4">
         <v>129</v>
@@ -5125,7 +5175,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
         <v>136</v>
@@ -5133,7 +5183,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>188</v>
@@ -5141,7 +5191,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>261</v>
@@ -5149,7 +5199,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>298</v>
@@ -5157,108 +5207,108 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="str">
-        <f>TRIM(B4)</f>
+        <f t="shared" ref="B31:B47" si="0">TRIM(B4)</f>
         <v>Dapper Query (Non Buffered)</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="str">
-        <f>TRIM(B5)</f>
+        <f t="shared" si="0"/>
         <v>RepoDb Query</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="str">
-        <f>TRIM(B6)</f>
+        <f t="shared" si="0"/>
         <v>PetaPoco (Fetch)</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="str">
-        <f>TRIM(B7)</f>
+        <f t="shared" si="0"/>
         <v>PetaPoco</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="str">
-        <f>TRIM(B8)</f>
+        <f t="shared" si="0"/>
         <v>PetaPoco (Fetch Fast)</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="str">
-        <f>TRIM(B9)</f>
+        <f t="shared" si="0"/>
         <v>Insight Database</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="str">
-        <f>TRIM(B10)</f>
+        <f t="shared" si="0"/>
         <v>Dapper Query (Buffered)</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="str">
-        <f>TRIM(B11)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit (Beta)</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="str">
-        <f>TRIM(B12)</f>
+        <f t="shared" si="0"/>
         <v>RepoDb Persistent Query</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="str">
-        <f>TRIM(B13)</f>
+        <f t="shared" si="0"/>
         <v>PetaPoco (Fast)</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="str">
-        <f>TRIM(B14)</f>
+        <f t="shared" si="0"/>
         <v>Dapper Contrib</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="str">
-        <f>TRIM(B15)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit (Auto Mapper)</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="str">
-        <f>TRIM(B16)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="str">
-        <f>TRIM(B17)</f>
+        <f t="shared" si="0"/>
         <v>Orm Lite</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="str">
-        <f>TRIM(B18)</f>
+        <f t="shared" si="0"/>
         <v>ADO (Pure)</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="str">
-        <f>TRIM(B19)</f>
+        <f t="shared" si="0"/>
         <v>Entity Framework</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="str">
-        <f>TRIM(B20)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit (No Query)</v>
       </c>
     </row>
@@ -5283,7 +5333,7 @@
   <dimension ref="B2:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -5296,7 +5346,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -5309,7 +5359,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
@@ -5317,7 +5367,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
         <v>86</v>
@@ -5325,7 +5375,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>88</v>
@@ -5333,7 +5383,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>89</v>
@@ -5341,7 +5391,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>91</v>
@@ -5349,7 +5399,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2">
         <v>93</v>
@@ -5357,7 +5407,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>94</v>
@@ -5365,7 +5415,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <v>96</v>
@@ -5373,7 +5423,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>98</v>
@@ -5381,7 +5431,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>99</v>
@@ -5389,7 +5439,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2">
         <v>102</v>
@@ -5397,7 +5447,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>106</v>
@@ -5405,7 +5455,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
         <v>110</v>
@@ -5413,7 +5463,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>125</v>
@@ -5421,7 +5471,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
         <v>126</v>
@@ -5429,7 +5479,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2">
         <v>185</v>
@@ -5437,7 +5487,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
         <v>194</v>
@@ -5445,7 +5495,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3">
         <v>847</v>
@@ -5453,7 +5503,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3">
         <v>886</v>
@@ -5465,126 +5515,126 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="str">
-        <f>TRIM(B4)</f>
+        <f t="shared" ref="B31:B47" si="0">TRIM(B4)</f>
         <v>Entity Framework</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="str">
-        <f>TRIM(B5)</f>
+        <f t="shared" si="0"/>
         <v>ADO (Pure)</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="str">
-        <f>TRIM(B6)</f>
+        <f t="shared" si="0"/>
         <v>PetaPoco (Fast)</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="str">
-        <f>TRIM(B7)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit (Beta)</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="str">
-        <f>TRIM(B8)</f>
+        <f t="shared" si="0"/>
         <v>PetaPoco (Fetch Fast)</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="str">
-        <f>TRIM(B9)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="str">
-        <f>TRIM(B10)</f>
+        <f t="shared" si="0"/>
         <v>Dapper Query (First Or Default)</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="str">
-        <f>TRIM(B11)</f>
+        <f t="shared" si="0"/>
         <v>Dapper Query (Buffered)</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="str">
-        <f>TRIM(B12)</f>
+        <f t="shared" si="0"/>
         <v>Dapper Contrib</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="str">
-        <f>TRIM(B13)</f>
+        <f t="shared" si="0"/>
         <v>PetaPoco</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="str">
-        <f>TRIM(B14)</f>
+        <f t="shared" si="0"/>
         <v>Orm Lite</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="str">
-        <f>TRIM(B15)</f>
+        <f t="shared" si="0"/>
         <v>PetaPoco (Fetch)</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="str">
-        <f>TRIM(B16)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit (Auto Mapper)</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="str">
-        <f>TRIM(B17)</f>
+        <f t="shared" si="0"/>
         <v>OrmToolkit (No Query)</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="str">
-        <f>TRIM(B18)</f>
+        <f t="shared" si="0"/>
         <v>Dapper Query (Non Buffered)</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="str">
-        <f>TRIM(B19)</f>
+        <f t="shared" si="0"/>
         <v>Insight Database (Single)</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="str">
-        <f>TRIM(B20)</f>
+        <f t="shared" si="0"/>
         <v>Insight Database</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="str">
-        <f t="shared" ref="B48:B50" si="0">TRIM(B21)</f>
+        <f t="shared" ref="B48:B50" si="1">TRIM(B21)</f>
         <v>RepoDb Persistent Query</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RepoDb Query</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
